--- a/VOTS_PER_PROVINCIA_AMB_QUOTAM.xlsx
+++ b/VOTS_PER_PROVINCIA_AMB_QUOTAM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pau Program\Documents\Mirror\UIB\MUSI\TFM\TFM_entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381A871F-CAA2-4064-8973-8DD53ED1D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3616BBB9-7065-4A44-96A4-D20D964E61DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="47" activeTab="53" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="52" activeTab="53" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A Coruña" sheetId="1" r:id="rId1"/>
@@ -8928,7 +8928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" activeCellId="3" sqref="A1:A1048576 F1:F1048576 H1:H1048576 I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -9684,7 +9686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="2" sqref="A1:A1048576 C1:C1048576 D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -10581,7 +10585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -10818,7 +10824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -12126,7 +12134,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:I20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
